--- a/forms/Form-3FA-multiple.xlsx
+++ b/forms/Form-3FA-multiple.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6052A6-9B34-468A-AEEE-C92A0D627F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956EF94-CAAC-4F06-B344-5B190293286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XIpU8TyyplAxt8QCmvUzJLzka5iPLg/Syn8lyzD7JnF14tHCWyDvwRUY8XkQvaUmDTF8QPqODQN8PW7VsRXUGA==" workbookSaltValue="5qal3ZsWJINY7ZPEJSDbng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="35685" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Focal point</t>
   </si>
@@ -138,9 +138,6 @@
     <t>3-FA-multiple</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Catches by species (in live weight equivalent, t)</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
+  </si>
+  <si>
+    <t>Target species</t>
   </si>
 </sst>
 </file>
@@ -779,36 +782,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -844,23 +817,102 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -874,69 +926,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1279,274 +1282,274 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66" t="s">
-        <v>33</v>
+      <c r="G4" s="57" t="s">
+        <v>37</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="50"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="50"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="68" t="s">
+      <c r="D8" s="79"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="52" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="61" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="52" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="50"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="50"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="29"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="50"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="60" t="s">
-        <v>37</v>
+      <c r="B19" s="42"/>
+      <c r="C19" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="29"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="50"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="29"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="50"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="58" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="50"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="51"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LoG3KshlFD2KrkL7tOUyYKs9asXGcBOecPdHzcwckIe1l9xs6Ck34cw+Q1JZmEEU9NtTeJ//WLkxVe0bXE9HXg==" saltValue="zmWyNaoQY0n2M/nwNJ2b4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lfhG868KuOmaCbSAotC4a3YzFVVIV0NnhMzWVidBgiiqrIt7L0s0BhkwXHg4LE9PxxQb5G2yJKQ55wfedatsDA==" saltValue="YuYb1HqMAc+qOinte4zc4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1569,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
-  <dimension ref="A1:BN55"/>
+  <dimension ref="A1:BO55"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1582,360 +1585,366 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="31" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="30" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="33" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="34" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="31"/>
-    <col min="18" max="65" width="9.140625" style="30"/>
-    <col min="66" max="66" width="9.140625" style="32"/>
-    <col min="67" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="4" width="15.7109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="31" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="33" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="31"/>
+    <col min="19" max="66" width="9.140625" style="30"/>
+    <col min="67" max="67" width="9.140625" style="32"/>
+    <col min="68" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="23"/>
-      <c r="O1" s="23"/>
+    <row r="1" spans="2:67" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="23"/>
       <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="2:66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="2:67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="43"/>
-    </row>
-    <row r="3" spans="2:66" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="46"/>
-    </row>
-    <row r="4" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="81"/>
+      <c r="BD2" s="81"/>
+      <c r="BE2" s="81"/>
+      <c r="BF2" s="81"/>
+      <c r="BG2" s="81"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="82"/>
+    </row>
+    <row r="3" spans="2:67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="85"/>
+    </row>
+    <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="69" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="69" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="87"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="87"/>
+      <c r="BM4" s="87"/>
+      <c r="BN4" s="87"/>
+      <c r="BO4" s="88"/>
+    </row>
+    <row r="5" spans="2:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="75"/>
-      <c r="AU4" s="75"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="75"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="75"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="75"/>
-      <c r="BI4" s="75"/>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="75"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="75"/>
-      <c r="BN4" s="76"/>
-    </row>
-    <row r="5" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="81" t="s">
+      <c r="M5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="87" t="s">
+      <c r="N5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="O5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="89" t="s">
+      <c r="P5" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="Q5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="92"/>
-      <c r="BL5" s="92"/>
-      <c r="BM5" s="92"/>
-      <c r="BN5" s="93"/>
-    </row>
-    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="74"/>
+      <c r="BH5" s="74"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="75"/>
+    </row>
+    <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -1983,26 +1992,27 @@
       <c r="BK6" s="12"/>
       <c r="BL6" s="12"/>
       <c r="BM6" s="12"/>
-      <c r="BN6" s="13"/>
-    </row>
-    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="13"/>
+    </row>
+    <row r="7" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="20"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -2050,26 +2060,27 @@
       <c r="BK7" s="21"/>
       <c r="BL7" s="21"/>
       <c r="BM7" s="21"/>
-      <c r="BN7" s="22"/>
-    </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="22"/>
+    </row>
+    <row r="8" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -2117,26 +2128,27 @@
       <c r="BK8" s="21"/>
       <c r="BL8" s="21"/>
       <c r="BM8" s="21"/>
-      <c r="BN8" s="22"/>
-    </row>
-    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="22"/>
+    </row>
+    <row r="9" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
@@ -2184,26 +2196,27 @@
       <c r="BK9" s="21"/>
       <c r="BL9" s="21"/>
       <c r="BM9" s="21"/>
-      <c r="BN9" s="22"/>
-    </row>
-    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="22"/>
+    </row>
+    <row r="10" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
@@ -2251,26 +2264,27 @@
       <c r="BK10" s="21"/>
       <c r="BL10" s="21"/>
       <c r="BM10" s="21"/>
-      <c r="BN10" s="22"/>
-    </row>
-    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="22"/>
+    </row>
+    <row r="11" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="20"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -2318,26 +2332,27 @@
       <c r="BK11" s="21"/>
       <c r="BL11" s="21"/>
       <c r="BM11" s="21"/>
-      <c r="BN11" s="22"/>
-    </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="22"/>
+    </row>
+    <row r="12" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="20"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -2385,26 +2400,27 @@
       <c r="BK12" s="21"/>
       <c r="BL12" s="21"/>
       <c r="BM12" s="21"/>
-      <c r="BN12" s="22"/>
-    </row>
-    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="22"/>
+    </row>
+    <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
@@ -2452,26 +2468,27 @@
       <c r="BK13" s="21"/>
       <c r="BL13" s="21"/>
       <c r="BM13" s="21"/>
-      <c r="BN13" s="22"/>
-    </row>
-    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="22"/>
+    </row>
+    <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -2519,26 +2536,27 @@
       <c r="BK14" s="21"/>
       <c r="BL14" s="21"/>
       <c r="BM14" s="21"/>
-      <c r="BN14" s="22"/>
-    </row>
-    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="22"/>
+    </row>
+    <row r="15" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
@@ -2586,26 +2604,27 @@
       <c r="BK15" s="21"/>
       <c r="BL15" s="21"/>
       <c r="BM15" s="21"/>
-      <c r="BN15" s="22"/>
-    </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN15" s="21"/>
+      <c r="BO15" s="22"/>
+    </row>
+    <row r="16" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
@@ -2653,26 +2672,27 @@
       <c r="BK16" s="21"/>
       <c r="BL16" s="21"/>
       <c r="BM16" s="21"/>
-      <c r="BN16" s="22"/>
-    </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN16" s="21"/>
+      <c r="BO16" s="22"/>
+    </row>
+    <row r="17" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
@@ -2720,26 +2740,27 @@
       <c r="BK17" s="21"/>
       <c r="BL17" s="21"/>
       <c r="BM17" s="21"/>
-      <c r="BN17" s="22"/>
-    </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN17" s="21"/>
+      <c r="BO17" s="22"/>
+    </row>
+    <row r="18" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="20"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
@@ -2787,26 +2808,27 @@
       <c r="BK18" s="21"/>
       <c r="BL18" s="21"/>
       <c r="BM18" s="21"/>
-      <c r="BN18" s="22"/>
-    </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN18" s="21"/>
+      <c r="BO18" s="22"/>
+    </row>
+    <row r="19" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="20"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
@@ -2854,26 +2876,27 @@
       <c r="BK19" s="21"/>
       <c r="BL19" s="21"/>
       <c r="BM19" s="21"/>
-      <c r="BN19" s="22"/>
-    </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="22"/>
+    </row>
+    <row r="20" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="20"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
@@ -2921,26 +2944,27 @@
       <c r="BK20" s="21"/>
       <c r="BL20" s="21"/>
       <c r="BM20" s="21"/>
-      <c r="BN20" s="22"/>
-    </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN20" s="21"/>
+      <c r="BO20" s="22"/>
+    </row>
+    <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="21"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="20"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
@@ -2988,26 +3012,27 @@
       <c r="BK21" s="21"/>
       <c r="BL21" s="21"/>
       <c r="BM21" s="21"/>
-      <c r="BN21" s="22"/>
-    </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN21" s="21"/>
+      <c r="BO21" s="22"/>
+    </row>
+    <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="20"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
@@ -3055,26 +3080,27 @@
       <c r="BK22" s="21"/>
       <c r="BL22" s="21"/>
       <c r="BM22" s="21"/>
-      <c r="BN22" s="22"/>
-    </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN22" s="21"/>
+      <c r="BO22" s="22"/>
+    </row>
+    <row r="23" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="20"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
@@ -3122,26 +3148,27 @@
       <c r="BK23" s="21"/>
       <c r="BL23" s="21"/>
       <c r="BM23" s="21"/>
-      <c r="BN23" s="22"/>
-    </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN23" s="21"/>
+      <c r="BO23" s="22"/>
+    </row>
+    <row r="24" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="21"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="20"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -3189,26 +3216,27 @@
       <c r="BK24" s="21"/>
       <c r="BL24" s="21"/>
       <c r="BM24" s="21"/>
-      <c r="BN24" s="22"/>
-    </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN24" s="21"/>
+      <c r="BO24" s="22"/>
+    </row>
+    <row r="25" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="20"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -3256,26 +3284,27 @@
       <c r="BK25" s="21"/>
       <c r="BL25" s="21"/>
       <c r="BM25" s="21"/>
-      <c r="BN25" s="22"/>
-    </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN25" s="21"/>
+      <c r="BO25" s="22"/>
+    </row>
+    <row r="26" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="20"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -3323,26 +3352,27 @@
       <c r="BK26" s="21"/>
       <c r="BL26" s="21"/>
       <c r="BM26" s="21"/>
-      <c r="BN26" s="22"/>
-    </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN26" s="21"/>
+      <c r="BO26" s="22"/>
+    </row>
+    <row r="27" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="21"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="20"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
@@ -3390,26 +3420,27 @@
       <c r="BK27" s="21"/>
       <c r="BL27" s="21"/>
       <c r="BM27" s="21"/>
-      <c r="BN27" s="22"/>
-    </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN27" s="21"/>
+      <c r="BO27" s="22"/>
+    </row>
+    <row r="28" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="21"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="20"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
@@ -3457,26 +3488,27 @@
       <c r="BK28" s="21"/>
       <c r="BL28" s="21"/>
       <c r="BM28" s="21"/>
-      <c r="BN28" s="22"/>
-    </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN28" s="21"/>
+      <c r="BO28" s="22"/>
+    </row>
+    <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="21"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="20"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
@@ -3524,26 +3556,27 @@
       <c r="BK29" s="21"/>
       <c r="BL29" s="21"/>
       <c r="BM29" s="21"/>
-      <c r="BN29" s="22"/>
-    </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN29" s="21"/>
+      <c r="BO29" s="22"/>
+    </row>
+    <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="21"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="20"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
@@ -3591,26 +3624,27 @@
       <c r="BK30" s="21"/>
       <c r="BL30" s="21"/>
       <c r="BM30" s="21"/>
-      <c r="BN30" s="22"/>
-    </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN30" s="21"/>
+      <c r="BO30" s="22"/>
+    </row>
+    <row r="31" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="21"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="20"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -3658,26 +3692,27 @@
       <c r="BK31" s="21"/>
       <c r="BL31" s="21"/>
       <c r="BM31" s="21"/>
-      <c r="BN31" s="22"/>
-    </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="22"/>
+    </row>
+    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="21"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="20"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
@@ -3725,26 +3760,27 @@
       <c r="BK32" s="21"/>
       <c r="BL32" s="21"/>
       <c r="BM32" s="21"/>
-      <c r="BN32" s="22"/>
-    </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN32" s="21"/>
+      <c r="BO32" s="22"/>
+    </row>
+    <row r="33" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="21"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
@@ -3792,26 +3828,27 @@
       <c r="BK33" s="21"/>
       <c r="BL33" s="21"/>
       <c r="BM33" s="21"/>
-      <c r="BN33" s="22"/>
-    </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN33" s="21"/>
+      <c r="BO33" s="22"/>
+    </row>
+    <row r="34" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="21"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="20"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
@@ -3859,26 +3896,27 @@
       <c r="BK34" s="21"/>
       <c r="BL34" s="21"/>
       <c r="BM34" s="21"/>
-      <c r="BN34" s="22"/>
-    </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN34" s="21"/>
+      <c r="BO34" s="22"/>
+    </row>
+    <row r="35" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="21"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="20"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
@@ -3926,26 +3964,27 @@
       <c r="BK35" s="21"/>
       <c r="BL35" s="21"/>
       <c r="BM35" s="21"/>
-      <c r="BN35" s="22"/>
-    </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN35" s="21"/>
+      <c r="BO35" s="22"/>
+    </row>
+    <row r="36" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="21"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="20"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -3993,26 +4032,27 @@
       <c r="BK36" s="21"/>
       <c r="BL36" s="21"/>
       <c r="BM36" s="21"/>
-      <c r="BN36" s="22"/>
-    </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN36" s="21"/>
+      <c r="BO36" s="22"/>
+    </row>
+    <row r="37" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="21"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="20"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
@@ -4060,26 +4100,27 @@
       <c r="BK37" s="21"/>
       <c r="BL37" s="21"/>
       <c r="BM37" s="21"/>
-      <c r="BN37" s="22"/>
-    </row>
-    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN37" s="21"/>
+      <c r="BO37" s="22"/>
+    </row>
+    <row r="38" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="16"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="21"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="20"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
@@ -4127,26 +4168,27 @@
       <c r="BK38" s="21"/>
       <c r="BL38" s="21"/>
       <c r="BM38" s="21"/>
-      <c r="BN38" s="22"/>
-    </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN38" s="21"/>
+      <c r="BO38" s="22"/>
+    </row>
+    <row r="39" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="16"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="21"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="20"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
@@ -4194,26 +4236,27 @@
       <c r="BK39" s="21"/>
       <c r="BL39" s="21"/>
       <c r="BM39" s="21"/>
-      <c r="BN39" s="22"/>
-    </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN39" s="21"/>
+      <c r="BO39" s="22"/>
+    </row>
+    <row r="40" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="16"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="20"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
@@ -4261,26 +4304,27 @@
       <c r="BK40" s="21"/>
       <c r="BL40" s="21"/>
       <c r="BM40" s="21"/>
-      <c r="BN40" s="22"/>
-    </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN40" s="21"/>
+      <c r="BO40" s="22"/>
+    </row>
+    <row r="41" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="16"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="20"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
@@ -4328,26 +4372,27 @@
       <c r="BK41" s="21"/>
       <c r="BL41" s="21"/>
       <c r="BM41" s="21"/>
-      <c r="BN41" s="22"/>
-    </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN41" s="21"/>
+      <c r="BO41" s="22"/>
+    </row>
+    <row r="42" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="20"/>
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
@@ -4395,26 +4440,27 @@
       <c r="BK42" s="21"/>
       <c r="BL42" s="21"/>
       <c r="BM42" s="21"/>
-      <c r="BN42" s="22"/>
-    </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN42" s="21"/>
+      <c r="BO42" s="22"/>
+    </row>
+    <row r="43" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="20"/>
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
@@ -4462,26 +4508,27 @@
       <c r="BK43" s="21"/>
       <c r="BL43" s="21"/>
       <c r="BM43" s="21"/>
-      <c r="BN43" s="22"/>
-    </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN43" s="21"/>
+      <c r="BO43" s="22"/>
+    </row>
+    <row r="44" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="16"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="20"/>
       <c r="S44" s="21"/>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
@@ -4529,26 +4576,27 @@
       <c r="BK44" s="21"/>
       <c r="BL44" s="21"/>
       <c r="BM44" s="21"/>
-      <c r="BN44" s="22"/>
-    </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN44" s="21"/>
+      <c r="BO44" s="22"/>
+    </row>
+    <row r="45" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="16"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="16"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="21"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="20"/>
       <c r="S45" s="21"/>
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
@@ -4596,26 +4644,27 @@
       <c r="BK45" s="21"/>
       <c r="BL45" s="21"/>
       <c r="BM45" s="21"/>
-      <c r="BN45" s="22"/>
-    </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN45" s="21"/>
+      <c r="BO45" s="22"/>
+    </row>
+    <row r="46" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="16"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="21"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="20"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
@@ -4663,26 +4712,27 @@
       <c r="BK46" s="21"/>
       <c r="BL46" s="21"/>
       <c r="BM46" s="21"/>
-      <c r="BN46" s="22"/>
-    </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN46" s="21"/>
+      <c r="BO46" s="22"/>
+    </row>
+    <row r="47" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="16"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="16"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="21"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="20"/>
       <c r="S47" s="21"/>
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
@@ -4730,26 +4780,27 @@
       <c r="BK47" s="21"/>
       <c r="BL47" s="21"/>
       <c r="BM47" s="21"/>
-      <c r="BN47" s="22"/>
-    </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN47" s="21"/>
+      <c r="BO47" s="22"/>
+    </row>
+    <row r="48" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="16"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="16"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="21"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="20"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
@@ -4797,26 +4848,27 @@
       <c r="BK48" s="21"/>
       <c r="BL48" s="21"/>
       <c r="BM48" s="21"/>
-      <c r="BN48" s="22"/>
-    </row>
-    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN48" s="21"/>
+      <c r="BO48" s="22"/>
+    </row>
+    <row r="49" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="16"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="21"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="20"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
@@ -4864,26 +4916,27 @@
       <c r="BK49" s="21"/>
       <c r="BL49" s="21"/>
       <c r="BM49" s="21"/>
-      <c r="BN49" s="22"/>
-    </row>
-    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN49" s="21"/>
+      <c r="BO49" s="22"/>
+    </row>
+    <row r="50" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="21"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="20"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
@@ -4931,26 +4984,27 @@
       <c r="BK50" s="21"/>
       <c r="BL50" s="21"/>
       <c r="BM50" s="21"/>
-      <c r="BN50" s="22"/>
-    </row>
-    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN50" s="21"/>
+      <c r="BO50" s="22"/>
+    </row>
+    <row r="51" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="16"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="21"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="20"/>
       <c r="S51" s="21"/>
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
@@ -4998,26 +5052,27 @@
       <c r="BK51" s="21"/>
       <c r="BL51" s="21"/>
       <c r="BM51" s="21"/>
-      <c r="BN51" s="22"/>
-    </row>
-    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN51" s="21"/>
+      <c r="BO51" s="22"/>
+    </row>
+    <row r="52" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="21"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="20"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
@@ -5065,26 +5120,27 @@
       <c r="BK52" s="21"/>
       <c r="BL52" s="21"/>
       <c r="BM52" s="21"/>
-      <c r="BN52" s="22"/>
-    </row>
-    <row r="53" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN52" s="21"/>
+      <c r="BO52" s="22"/>
+    </row>
+    <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="16"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="21"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="20"/>
       <c r="S53" s="21"/>
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
@@ -5132,26 +5188,27 @@
       <c r="BK53" s="21"/>
       <c r="BL53" s="21"/>
       <c r="BM53" s="21"/>
-      <c r="BN53" s="22"/>
-    </row>
-    <row r="54" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN53" s="21"/>
+      <c r="BO53" s="22"/>
+    </row>
+    <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="16"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="14"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="21"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="20"/>
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
@@ -5199,26 +5256,27 @@
       <c r="BK54" s="21"/>
       <c r="BL54" s="21"/>
       <c r="BM54" s="21"/>
-      <c r="BN54" s="22"/>
-    </row>
-    <row r="55" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="BN54" s="21"/>
+      <c r="BO54" s="22"/>
+    </row>
+    <row r="55" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="21"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="20"/>
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
@@ -5266,39 +5324,44 @@
       <c r="BK55" s="21"/>
       <c r="BL55" s="21"/>
       <c r="BM55" s="21"/>
-      <c r="BN55" s="22"/>
+      <c r="BN55" s="21"/>
+      <c r="BO55" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hi4XNNcOJTlE9pxA2Imr7ILakMMyHLqMgKAzySh2an4cMOLKginJVanPfrqSVzs73Gz96X5YCBxis+ouX0pv+Q==" saltValue="jyiosaxMvDyITSIQBzzYKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R+6FbKy2FBMsD//0errPsXOm5tEbA4ghHy4X19sIi9mEFjOqXrfJwkJjC4+fkezkIbMXwFwe6Iu2Y8Io2xvWrQ==" saltValue="1LGZaBV513b4J6PcKsy1Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
-    <mergeCell ref="Q4:BN4"/>
-    <mergeCell ref="B2:BN3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:BO4"/>
+    <mergeCell ref="B2:BO3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M4:O4"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:BN4 L5:N5 C5:J5" xr:uid="{88EE6864-17B6-45B2-A462-125294DCC25A}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:BO4 M5:O5 C5 E5:K5" xr:uid="{88EE6864-17B6-45B2-A462-125294DCC25A}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{3D790B3E-9151-4CD7-9992-1928F06AD639}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{CFF15B04-22F5-4AD0-8014-7EC509DCE4BE}"/>
-    <hyperlink ref="D5" r:id="rId2" location="IOTCgrids1x1" xr:uid="{8B4CD363-02B5-4527-ACEF-154AE9DAC3BF}"/>
-    <hyperlink ref="E5" r:id="rId3" location="estimations" xr:uid="{9E8582AB-C11F-40F2-BF72-79EF8E27BAC6}"/>
-    <hyperlink ref="F5" r:id="rId4" location="types" xr:uid="{3F7F99BD-365E-47E0-A870-844E259B6E1B}"/>
-    <hyperlink ref="G5" r:id="rId5" location="sourcesFA" xr:uid="{9542F387-6930-41BD-A7C5-56974805ED94}"/>
-    <hyperlink ref="H5" r:id="rId6" location="processingsFA" xr:uid="{BEC7C37C-2763-4236-9626-86FCFC7136F9}"/>
-    <hyperlink ref="J5" r:id="rId7" location="coverageTypes" xr:uid="{7D6FB211-3B90-4915-9269-E7D304542F7A}"/>
-    <hyperlink ref="L5" r:id="rId8" location="FADtypes" xr:uid="{25F3E705-1223-4239-9099-346B05E481F9}"/>
-    <hyperlink ref="M5" r:id="rId9" location="FADactivityTypes" xr:uid="{6F8B4A33-8A1C-400F-9B64-EDA61D627D62}"/>
-    <hyperlink ref="Q4:BN4" r:id="rId10" location="species" display="Catches by species (in live weight equivalent, t)" xr:uid="{2EFB78A7-4E12-4F31-85D0-727F23DB65DF}"/>
-    <hyperlink ref="I5" r:id="rId11" location="raisings" display="Data raising" xr:uid="{0B3F2798-9516-48A4-9ABF-8CFC246D4DC6}"/>
-    <hyperlink ref="N5" r:id="rId12" location="FADownerships" xr:uid="{6FEDBFA0-7878-44EF-8A98-71DD6AF2ADA2}"/>
+    <hyperlink ref="E5" r:id="rId2" location="IOTCgrids1x1" xr:uid="{8B4CD363-02B5-4527-ACEF-154AE9DAC3BF}"/>
+    <hyperlink ref="F5" r:id="rId3" location="estimations" xr:uid="{9E8582AB-C11F-40F2-BF72-79EF8E27BAC6}"/>
+    <hyperlink ref="G5" r:id="rId4" location="types" xr:uid="{3F7F99BD-365E-47E0-A870-844E259B6E1B}"/>
+    <hyperlink ref="H5" r:id="rId5" location="sourcesFA" xr:uid="{9542F387-6930-41BD-A7C5-56974805ED94}"/>
+    <hyperlink ref="I5" r:id="rId6" location="processingsFA" xr:uid="{BEC7C37C-2763-4236-9626-86FCFC7136F9}"/>
+    <hyperlink ref="K5" r:id="rId7" location="coverageTypes" xr:uid="{7D6FB211-3B90-4915-9269-E7D304542F7A}"/>
+    <hyperlink ref="M5" r:id="rId8" location="FADtypes" xr:uid="{25F3E705-1223-4239-9099-346B05E481F9}"/>
+    <hyperlink ref="N5" r:id="rId9" location="FADactivityTypes" xr:uid="{6F8B4A33-8A1C-400F-9B64-EDA61D627D62}"/>
+    <hyperlink ref="R4:BO4" r:id="rId10" location="species" display="Catches by species (in live weight equivalent, t)" xr:uid="{2EFB78A7-4E12-4F31-85D0-727F23DB65DF}"/>
+    <hyperlink ref="J5" r:id="rId11" location="raisings" display="Data raising" xr:uid="{0B3F2798-9516-48A4-9ABF-8CFC246D4DC6}"/>
+    <hyperlink ref="O5" r:id="rId12" location="FADownerships" xr:uid="{6FEDBFA0-7878-44EF-8A98-71DD6AF2ADA2}"/>
+    <hyperlink ref="D5" r:id="rId13" location="species" xr:uid="{2D0B9E89-8A7F-46EF-9134-CEBEE15DC507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/forms/Form-3FA-multiple.xlsx
+++ b/forms/Form-3FA-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956EF94-CAAC-4F06-B344-5B190293286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C9AB1-137C-467E-B0DB-5530AB27088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XIpU8TyyplAxt8QCmvUzJLzka5iPLg/Syn8lyzD7JnF14tHCWyDvwRUY8XkQvaUmDTF8QPqODQN8PW7VsRXUGA==" workbookSaltValue="5qal3ZsWJINY7ZPEJSDbng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="32715" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1827,7 +1827,7 @@
       <c r="BN4" s="87"/>
       <c r="BO4" s="88"/>
     </row>
-    <row r="5" spans="2:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="59" t="s">
         <v>9</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="BO55" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R+6FbKy2FBMsD//0errPsXOm5tEbA4ghHy4X19sIi9mEFjOqXrfJwkJjC4+fkezkIbMXwFwe6Iu2Y8Io2xvWrQ==" saltValue="1LGZaBV513b4J6PcKsy1Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Hv6Ww09BcTzZD75ahcghFr7A+e/FLXDlP3YfvrhM62WfI5/2x2pT/+2FwrtgCJjgY0FRzmcJybozzmmCXeToQ==" saltValue="+yw8O6doJI3JeDR5PyxPWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="R4:BO4"/>
     <mergeCell ref="B2:BO3"/>
@@ -5338,11 +5338,8 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="M4:O4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:BO4 M5:O5 C5 E5:K5" xr:uid="{88EE6864-17B6-45B2-A462-125294DCC25A}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{3D790B3E-9151-4CD7-9992-1928F06AD639}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:BO4 M5:O5 C5:K5" xr:uid="{88EE6864-17B6-45B2-A462-125294DCC25A}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/forms/Form-3FA-multiple.xlsx
+++ b/forms/Form-3FA-multiple.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C9AB1-137C-467E-B0DB-5530AB27088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4296C0E-AE74-4D0D-9A5C-F040C2EE8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XIpU8TyyplAxt8QCmvUzJLzka5iPLg/Syn8lyzD7JnF14tHCWyDvwRUY8XkQvaUmDTF8QPqODQN8PW7VsRXUGA==" workbookSaltValue="5qal3ZsWJINY7ZPEJSDbng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -817,37 +836,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,20 +843,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -914,39 +888,92 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1282,24 +1309,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
@@ -1349,15 +1376,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="79"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="79"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,11 +1555,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1610,322 +1637,322 @@
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="2:67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="81"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="81"/>
-      <c r="BF2" s="81"/>
-      <c r="BG2" s="81"/>
-      <c r="BH2" s="81"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="82"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="70"/>
     </row>
     <row r="3" spans="2:67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="84"/>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="85"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="73"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="89" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="89" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="92" t="s">
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="86" t="s">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="87"/>
-      <c r="BM4" s="87"/>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="88"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="92"/>
+      <c r="BN4" s="92"/>
+      <c r="BO4" s="93"/>
     </row>
     <row r="5" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="71" t="s">
+      <c r="P5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="74"/>
-      <c r="BH5" s="74"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="74"/>
-      <c r="BO5" s="75"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="62"/>
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="62"/>
+      <c r="BJ5" s="62"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="63"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -5328,7 +5355,7 @@
       <c r="BO55" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Hv6Ww09BcTzZD75ahcghFr7A+e/FLXDlP3YfvrhM62WfI5/2x2pT/+2FwrtgCJjgY0FRzmcJybozzmmCXeToQ==" saltValue="+yw8O6doJI3JeDR5PyxPWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AnC6/meggyljWeoXdmIh3mGtpbQOuSFehO83H3QY/hxk6PNfP062qY0jPJzjTsH5Ue3qQD3WC/4xdq/dD2wr0Q==" saltValue="0K+2Jzw4zqHxRbFRCQz+VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="R4:BO4"/>
     <mergeCell ref="B2:BO3"/>
@@ -5338,6 +5365,11 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="M4:O4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:BO1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:BO4 M5:O5 C5:K5" xr:uid="{88EE6864-17B6-45B2-A462-125294DCC25A}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3FA-multiple.xlsx
+++ b/forms/Form-3FA-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4296C0E-AE74-4D0D-9A5C-F040C2EE8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED288303-9955-44D1-8489-C8635E7ABB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XIpU8TyyplAxt8QCmvUzJLzka5iPLg/Syn8lyzD7JnF14tHCWyDvwRUY8XkQvaUmDTF8QPqODQN8PW7VsRXUGA==" workbookSaltValue="5qal3ZsWJINY7ZPEJSDbng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -855,6 +855,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -888,66 +933,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -959,6 +944,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,24 +1309,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
@@ -1376,15 +1376,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,11 +1555,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:BO55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1637,270 +1637,270 @@
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="2:67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="81"/>
+      <c r="BD2" s="81"/>
+      <c r="BE2" s="81"/>
+      <c r="BF2" s="81"/>
+      <c r="BG2" s="81"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="82"/>
     </row>
     <row r="3" spans="2:67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="73"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="85"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="74" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="74" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="91" t="s">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="92"/>
-      <c r="BN4" s="92"/>
-      <c r="BO4" s="93"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="87"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="87"/>
+      <c r="BM4" s="87"/>
+      <c r="BN4" s="87"/>
+      <c r="BO4" s="88"/>
     </row>
     <row r="5" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="73" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="75" t="s">
         <v>28</v>
       </c>
       <c r="R5" s="61"/>

--- a/forms/Form-3FA-multiple.xlsx
+++ b/forms/Form-3FA-multiple.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED288303-9955-44D1-8489-C8635E7ABB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949E724-177E-4C9A-90B2-DD57D056658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XIpU8TyyplAxt8QCmvUzJLzka5iPLg/Syn8lyzD7JnF14tHCWyDvwRUY8XkQvaUmDTF8QPqODQN8PW7VsRXUGA==" workbookSaltValue="5qal3ZsWJINY7ZPEJSDbng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1293,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/forms/Form-3FA-multiple.xlsx
+++ b/forms/Form-3FA-multiple.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949E724-177E-4C9A-90B2-DD57D056658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5656A-A14A-471A-AC4E-61C149DF2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XIpU8TyyplAxt8QCmvUzJLzka5iPLg/Syn8lyzD7JnF14tHCWyDvwRUY8XkQvaUmDTF8QPqODQN8PW7VsRXUGA==" workbookSaltValue="5qal3ZsWJINY7ZPEJSDbng==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -5355,7 +5355,7 @@
       <c r="BO55" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AnC6/meggyljWeoXdmIh3mGtpbQOuSFehO83H3QY/hxk6PNfP062qY0jPJzjTsH5Ue3qQD3WC/4xdq/dD2wr0Q==" saltValue="0K+2Jzw4zqHxRbFRCQz+VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0W20M7jgXESlWCQy1/aPtg/fPg8ERNerXhUNH6y5Nn0Rcr8FhBI7q0wnWQ49Ko+SqS2o55ccZy6cZiVx/5z5w==" saltValue="7zCJ7LKFDmZl4psxl/2hgA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="R4:BO4"/>
     <mergeCell ref="B2:BO3"/>
